--- a/medicine/Pharmacie/Produit_phytopharmaceutique/Produit_phytopharmaceutique.xlsx
+++ b/medicine/Pharmacie/Produit_phytopharmaceutique/Produit_phytopharmaceutique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les produits phytopharmaceutiques appartiennent à la famille des pesticides[1], dont font également partie les biocides[2],[3],[4],[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les produits phytopharmaceutiques appartiennent à la famille des pesticides, dont font également partie les biocides. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Éléments de définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La directive 91/414/CEE définit comme produit phytopharmaceutique tout produit destiné à  :
 Protéger les végétaux ou les produits végétaux contre tous les organismes nuisibles ou à prévenir leur action, pour autant que ces substances ou préparations ne soient pas autrement définies ci-après.
@@ -520,7 +534,7 @@
 Détruire les végétaux indésirables
 Détruire les parties de végétaux, freiner ou prévenir une croissance indésirable des végétaux.
 Dans le droit français, le décret n° 94-359 du 5 mai 1994 (abrogé par Décret n°2003-768 du 1er août 2003 - art. 6 (V) JORF 7 août 2003) relatif au contrôle des produits phytopharmaceutiques donne la même définition, mais en prévoyant la possibilité d'avoir dans l'avenir des produits phytopharmaceutiques contenant des OGM. Le texte précis est « Au sens du présent décret, on entend par produit phytopharmaceutique, les substances, les préparations contenant une ou plusieurs substances actives et les produits composés en tout ou partie d'organismes génétiquement modifiés présentés sous la forme dans laquelle ils sont livrés à l'utilisateur, destinés à... ».
-Les traces résiduelles présentes sur ou dans les aliments ayant été en contact avec ces produits sont dits « résidus ». Ils doivent faire en Europe l'objet d'un suivi, assuré en France par l'Observatoire des résidus de pesticides[6].
+Les traces résiduelles présentes sur ou dans les aliments ayant été en contact avec ces produits sont dits « résidus ». Ils doivent faire en Europe l'objet d'un suivi, assuré en France par l'Observatoire des résidus de pesticides.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Termes proches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les termes de pesticide, produit phytosanitaire, produit agropharmaceutique, produit de protection des plantes, produit de protection des cultures sont aussi employés dans un sens proche de produit phytopharmaceutique.
 L'Union européenne définit un produit phytopharmaceutique dans la directive communautaire 91/414/CEE du 15 juillet 1991 et dans le décret 94-359 du 5 mai 1994. Elle ne propose pas de définition règlementaire pour pesticide ni pour les autres les termes listés ci-dessus.
@@ -582,10 +598,12 @@
           <t>Liste des produits phytopharmaceutiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les produits phytosanitaires autorisés ou tout simplement utilisés varient en fonction de chaque pays et des usages.
-En France, la liste exhaustive des produits autorisés peut être consultée sur le site du Ministère chargé de l'agriculture[7]
+En France, la liste exhaustive des produits autorisés peut être consultée sur le site du Ministère chargé de l'agriculture
 </t>
         </is>
       </c>
@@ -616,15 +634,55 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La France, second marché mondial
-Avec plus de 100 000 tonnes de produits formulés consommés en moyenne chaque année, la France se situe au deuxième rang mondial, derrière les États-Unis.
+          <t>La France, second marché mondial</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec plus de 100 000 tonnes de produits formulés consommés en moyenne chaque année, la France se situe au deuxième rang mondial, derrière les États-Unis.
 De manière plus précise, on distingue trois grandes filières d'utilisation des produits phytopharmaceutiques en France :
 L'utilisation agricole classique : 107 000 tonnes sont en moyenne consommées annuellement au titre de cette utilisation.
 L'utilisation par les jardiniers amateurs.
 L'utilisation dans le cadre de la filière « espaces verts ».
 Ces deux dernières activités ont représenté la consommation de 1 500 tonnes en 2000.
-Répartition de la consommation
-La consommation en tonnes de produits formulés dans le secteur agricole se répartit par familles de produits de la manière suivante :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Produit_phytopharmaceutique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Produit_phytopharmaceutique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Marché français des produits phytopharmaceutiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Répartition de la consommation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La consommation en tonnes de produits formulés dans le secteur agricole se répartit par familles de produits de la manière suivante :
 Source : Union des industries de protection des plantes[source insuffisante].
 La famille de produits utilisée en majorité en agriculture est celle des fongicides, suivie par les herbicides. Les insecticides représentent 3 à 4 % du volume annuel consommé.
 Les variations annuelles s'expliquent par des facteurs agronomiques (climat, pression des ravageurs) mais aussi fiscales (incidence de la taxe générale sur les activités polluantes en 2000, qui a conduit à un stockage de produits en 1999).
